--- a/src/excel-rooms.xlsx
+++ b/src/excel-rooms.xlsx
@@ -1009,10 +1009,10 @@
         <v>libre</v>
       </c>
       <c r="D18" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="E18" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="F18" t="str">
         <v>libre</v>
@@ -1021,10 +1021,10 @@
         <v>libre</v>
       </c>
       <c r="H18" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="I18" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="J18" t="str">
         <v>libre</v>

--- a/src/excel-rooms.xlsx
+++ b/src/excel-rooms.xlsx
@@ -458,10 +458,10 @@
         <v>libre</v>
       </c>
       <c r="G2" t="str">
-        <v>occupé</v>
+        <v>libre</v>
       </c>
       <c r="H2" t="str">
-        <v>occupé</v>
+        <v>libre</v>
       </c>
       <c r="I2" t="str">
         <v>libre</v>
@@ -487,22 +487,22 @@
         <v>libre</v>
       </c>
       <c r="E3" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="F3" t="str">
         <v>libre</v>
       </c>
       <c r="G3" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="H3" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="I3" t="str">
         <v>libre</v>
       </c>
       <c r="J3" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="K3" t="str">
         <v>libre</v>
@@ -592,7 +592,7 @@
         <v>libre</v>
       </c>
       <c r="E6" t="str">
-        <v>libre</v>
+        <v>occupé</v>
       </c>
       <c r="F6" t="str">
         <v>libre</v>
